--- a/biology/Botanique/Aframomum_alboviolaceum/Aframomum_alboviolaceum.xlsx
+++ b/biology/Botanique/Aframomum_alboviolaceum/Aframomum_alboviolaceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aframomum alboviolaceum, connue en anglais sous le nom de large amomum, Aframomum africanum fruit ou encore grape-seeded amomum, ou encore Masusu, 
 Tondolo en République Démocratique du Congo est une espèce de plantes dicotylédones de la famille des Zingiberaceae, originaire d'Afrique tropicale. 
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aframomum alboviolaceum est une plante à rhizomes[2] rampants, profondément enfouis dans le sol, qui produit des tiges feuillues arrivant jusqu'à 3 mètres de haut[3]. Elle est collectée directement du milieu naturel. Sa culture est parfois considérée comme étant vivrière[4]. Ses fleurs sont de couleurs mauve pâle et blanc comportant une tache jaune. Cette plante donne naissance à un fruit à la saveur acidulée : le matungulu, parfois nommé « oignon de brousse » en français. La pulpe de ses fruits est particulièrement riche en éléments minéraux, spécialement le potassium[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aframomum alboviolaceum est une plante à rhizomes rampants, profondément enfouis dans le sol, qui produit des tiges feuillues arrivant jusqu'à 3 mètres de haut. Elle est collectée directement du milieu naturel. Sa culture est parfois considérée comme étant vivrière. Ses fleurs sont de couleurs mauve pâle et blanc comportant une tache jaune. Cette plante donne naissance à un fruit à la saveur acidulée : le matungulu, parfois nommé « oignon de brousse » en français. La pulpe de ses fruits est particulièrement riche en éléments minéraux, spécialement le potassium.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a plusieurs utilisations allant de l’alimentation à l’utilisation médicinale : ses feuilles sont utilisées comme épice et ses graines à des fins stomachique et vermifuge[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a plusieurs utilisations allant de l’alimentation à l’utilisation médicinale : ses feuilles sont utilisées comme épice et ses graines à des fins stomachique et vermifuge.
 </t>
         </is>
       </c>
